--- a/trunk/userguide/specrunner-userguide-sql/src/test/resources/income/dbms/projetos_tarefas.xlsx
+++ b/trunk/userguide/specrunner-userguide-sql/src/test/resources/income/dbms/projetos_tarefas.xlsx
@@ -14,6 +14,55 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Thiago</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>converter="bool"
+comparer="date"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Thiago:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+converter="long"</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
@@ -66,13 +115,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -394,7 +456,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -439,6 +501,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
